--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC19_Verify_Giftcard_SCS_Site.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC19_Verify_Giftcard_SCS_Site.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0257D7-B6D9-4B57-90B2-6FDB58E99614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F813A3B-FD8D-41C1-A1E2-CDF0023E42E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="62">
   <si>
     <t>TestCase</t>
   </si>
@@ -178,9 +178,6 @@
     <t>Auto test</t>
   </si>
   <si>
-    <t>5105105105100</t>
-  </si>
-  <si>
     <t>SCS_CVV</t>
   </si>
   <si>
@@ -188,6 +185,37 @@
   </si>
   <si>
     <t>December</t>
+  </si>
+  <si>
+    <t>SCS_Submit_Order</t>
+  </si>
+  <si>
+    <t>SCS_OrderConfirm_Container</t>
+  </si>
+  <si>
+    <t>VERIFY_WEBELEMENT_PRESENT</t>
+  </si>
+  <si>
+    <t>VERIFY_TEXT_PRESENT</t>
+  </si>
+  <si>
+    <t>SCS_OrderConfirm_ContainerT</t>
+  </si>
+  <si>
+    <t>SCS_OrderConfirm_Msg</t>
+  </si>
+  <si>
+    <t>SCS_OrderConfirm_MsgT</t>
+  </si>
+  <si>
+    <t>Your order was successfully received.</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>Thank you!
+Your order was successfully received.</t>
   </si>
 </sst>
 </file>
@@ -264,7 +292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -272,6 +300,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -620,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1061,13 +1092,65 @@
         <v>11</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1079,16 +1162,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1200,7 +1283,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1240,7 +1323,7 @@
         <v>45</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1248,7 +1331,7 @@
         <v>46</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1261,23 +1344,43 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="3">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1296,6 +1399,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1492,15 +1604,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
@@ -1511,6 +1614,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1527,12 +1638,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>